--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_3_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_3_33.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3055570.355979118</v>
+        <v>3131100.025643923</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -674,7 +676,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -704,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>193.9168027940582</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>25.30758686808333</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -814,16 +816,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>37.83808333974894</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>68.16471659739305</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -874,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -896,7 +898,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>334.6402634116532</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -908,10 +910,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -941,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>301.3832202615727</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1054,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1063,7 +1065,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>124.6873033904186</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1096,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1117,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>30.60408762095418</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,19 +1132,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>333.7796806743558</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
@@ -1151,7 +1153,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>137.0178981859286</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1297,7 +1299,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1306,10 +1308,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>16.14365212156756</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1333,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1342,22 +1344,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>4.977754783587348</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1376,7 +1378,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1388,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1467,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,19 +1527,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>142.7490173809992</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -1546,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1585,13 +1587,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>72.06690391387224</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1616,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>411.9645167896915</v>
@@ -1762,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>118.4898845065121</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1771,13 +1773,13 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1825,13 +1827,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>200.7056526814582</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1853,16 +1855,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G17" t="n">
         <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113172</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274084</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498011</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1999,19 +2001,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2020,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>49.38162151975428</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>99.35306432336047</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2068,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2096,10 +2098,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2138,13 +2140,13 @@
         <v>251.078595249801</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2178,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2239,25 +2241,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2296,16 +2298,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>211.5619001782852</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>109.7482364776547</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2415,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2445,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T24" t="n">
         <v>192.9654699154601</v>
@@ -2476,13 +2478,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2491,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2527,22 +2529,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>282.8724564691727</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051975</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2612,13 +2614,13 @@
         <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2652,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>64.02545868683424</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2764,22 +2766,22 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>45.87424119343839</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2801,7 +2803,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>411.9645167896915</v>
@@ -2950,25 +2952,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>57.64843562452468</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>152.138472222046</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3004,16 +3006,16 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3187,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -3199,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,25 +3234,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>183.1028400249718</v>
       </c>
       <c r="U34" t="n">
-        <v>115.5718253077047</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3272,7 +3274,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3284,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U35" t="n">
         <v>251.078595249801</v>
@@ -3363,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -3433,13 +3435,13 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,25 +3471,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>188.4590648403943</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>217.4622110881086</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3521,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3560,7 +3562,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3600,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3667,10 +3669,10 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3709,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>151.6248994057463</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3740,13 +3742,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3758,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U41" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498009</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3837,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3901,13 +3903,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3916,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,25 +3945,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>154.0677550156942</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>143.3158222056519</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3992,10 +3994,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H44" t="n">
-        <v>305.2872491113172</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4135,10 +4137,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4147,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4180,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>31.27732121118747</v>
+        <v>115.5269768002183</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
@@ -4195,7 +4197,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1363.553390680693</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="C2" t="n">
-        <v>1363.553390680693</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="D2" t="n">
-        <v>1363.553390680693</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4328,13 +4330,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2302.336936304455</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U2" t="n">
-        <v>2106.461377926619</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V2" t="n">
-        <v>2106.461377926619</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W2" t="n">
-        <v>1753.692722656504</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="X2" t="n">
-        <v>1753.692722656504</v>
+        <v>1813.097842756629</v>
       </c>
       <c r="Y2" t="n">
-        <v>1363.553390680693</v>
+        <v>1422.958510780817</v>
       </c>
     </row>
     <row r="3">
@@ -4425,13 +4427,13 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,13 +4464,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>291.7960311703079</v>
+        <v>689.9086980046678</v>
       </c>
       <c r="C4" t="n">
-        <v>291.7960311703079</v>
+        <v>520.9725150767609</v>
       </c>
       <c r="D4" t="n">
-        <v>222.942782082032</v>
+        <v>370.8558756644252</v>
       </c>
       <c r="E4" t="n">
         <v>222.942782082032</v>
@@ -4522,16 +4524,16 @@
         <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>473.4444960005476</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>473.4444960005476</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>473.4444960005476</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>473.4444960005476</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1683.321707331112</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="C5" t="n">
-        <v>1345.301239238533</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="D5" t="n">
-        <v>1345.301239238533</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E5" t="n">
-        <v>959.5129866402885</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F5" t="n">
-        <v>548.527081850681</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2443.387305656313</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>2443.387305656313</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W5" t="n">
-        <v>2443.387305656313</v>
+        <v>2113.174258592771</v>
       </c>
       <c r="X5" t="n">
-        <v>2069.921547395234</v>
+        <v>2113.174258592771</v>
       </c>
       <c r="Y5" t="n">
-        <v>2069.921547395234</v>
+        <v>1808.746763379062</v>
       </c>
     </row>
     <row r="6">
@@ -4641,25 +4643,25 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641994</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>667.7988452409105</v>
+        <v>477.9194859165262</v>
       </c>
       <c r="C7" t="n">
-        <v>498.8626623130036</v>
+        <v>477.9194859165262</v>
       </c>
       <c r="D7" t="n">
-        <v>348.7460229006679</v>
+        <v>327.8028465041905</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>179.8897529217974</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V7" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="W7" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="X7" t="n">
-        <v>667.7988452409105</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="Y7" t="n">
-        <v>667.7988452409105</v>
+        <v>477.9194859165262</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1494.518401093285</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="C8" t="n">
-        <v>1494.518401093285</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="D8" t="n">
-        <v>1136.252702486534</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="E8" t="n">
-        <v>1136.252702486534</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861748</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
         <v>881.2824271224076</v>
@@ -4814,7 +4816,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4832,22 +4834,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2212.181128500977</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V8" t="n">
-        <v>1881.118241157406</v>
+        <v>2108.906329475425</v>
       </c>
       <c r="W8" t="n">
-        <v>1881.118241157406</v>
+        <v>2108.906329475425</v>
       </c>
       <c r="X8" t="n">
-        <v>1881.118241157406</v>
+        <v>1735.440571214345</v>
       </c>
       <c r="Y8" t="n">
-        <v>1881.118241157406</v>
+        <v>1345.301239238533</v>
       </c>
     </row>
     <row r="9">
@@ -4884,13 +4886,13 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4936,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>211.6913543878343</v>
+        <v>218.1627947174723</v>
       </c>
       <c r="C10" t="n">
-        <v>211.6913543878343</v>
+        <v>218.1627947174723</v>
       </c>
       <c r="D10" t="n">
-        <v>211.6913543878343</v>
+        <v>218.1627947174723</v>
       </c>
       <c r="E10" t="n">
-        <v>211.6913543878343</v>
+        <v>70.24970113507916</v>
       </c>
       <c r="F10" t="n">
-        <v>211.6913543878343</v>
+        <v>70.24970113507916</v>
       </c>
       <c r="G10" t="n">
-        <v>211.6913543878343</v>
+        <v>70.24970113507916</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>70.24970113507916</v>
       </c>
       <c r="I10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>471.4038777286579</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>471.4038777286579</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V10" t="n">
-        <v>216.719389522771</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="W10" t="n">
-        <v>211.6913543878343</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="X10" t="n">
-        <v>211.6913543878343</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="Y10" t="n">
-        <v>211.6913543878343</v>
+        <v>218.1627947174723</v>
       </c>
     </row>
     <row r="11">
@@ -5021,13 +5023,13 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155894</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
         <v>488.193237080547</v>
@@ -5039,25 +5041,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5106,31 +5108,31 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G12" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>167.8887746690272</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>316.9584588710871</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>563.7235867775513</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M12" t="n">
-        <v>1332.091733170013</v>
+        <v>1670.043068977054</v>
       </c>
       <c r="N12" t="n">
-        <v>1661.954360834046</v>
+        <v>1999.905696641086</v>
       </c>
       <c r="O12" t="n">
         <v>2331.418122136705</v>
@@ -5173,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>376.9270045185177</v>
+        <v>879.2482765610114</v>
       </c>
       <c r="C13" t="n">
-        <v>376.9270045185177</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="D13" t="n">
-        <v>376.9270045185177</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E13" t="n">
-        <v>376.9270045185177</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F13" t="n">
-        <v>376.9270045185177</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5200,13 +5202,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5215,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.921157035281</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1187.921157035281</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>1187.921157035281</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V13" t="n">
-        <v>1115.126304597026</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W13" t="n">
-        <v>825.7091345600652</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="X13" t="n">
-        <v>597.7195836620479</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="Y13" t="n">
-        <v>376.9270045185177</v>
+        <v>1023.439203208485</v>
       </c>
     </row>
     <row r="14">
@@ -5258,43 +5260,43 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J14" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5361,16 +5363,16 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341673</v>
+        <v>563.7235867775518</v>
       </c>
       <c r="M15" t="n">
-        <v>1016.813592216476</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N15" t="n">
-        <v>1346.676219880509</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O15" t="n">
-        <v>2016.139981183168</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
         <v>2536.440602918915</v>
@@ -5410,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>413.3055067228584</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>413.3055067228584</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>413.3055067228584</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
         <v>97.21709146028584</v>
@@ -5458,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>1098.712528333286</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V16" t="n">
-        <v>844.0280401273991</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W16" t="n">
-        <v>844.0280401273991</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X16" t="n">
-        <v>616.0384892293818</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y16" t="n">
-        <v>413.3055067228584</v>
+        <v>216.9038434870658</v>
       </c>
     </row>
     <row r="17">
@@ -5501,16 +5503,16 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155885</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823787</v>
@@ -5519,25 +5521,25 @@
         <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
         <v>4726.561275231264</v>
@@ -5592,25 +5594,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>901.674922584592</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M18" t="n">
-        <v>1208.995055864554</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N18" t="n">
-        <v>1538.857683528586</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O18" t="n">
-        <v>2123.441607278215</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>392.0201325405893</v>
+        <v>506.7814158330672</v>
       </c>
       <c r="C19" t="n">
-        <v>392.0201325405893</v>
+        <v>506.7814158330672</v>
       </c>
       <c r="D19" t="n">
-        <v>392.0201325405893</v>
+        <v>356.6647764207315</v>
       </c>
       <c r="E19" t="n">
-        <v>244.1070389581962</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5695,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1449.035844780373</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1449.035844780373</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1225.250429569879</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U19" t="n">
-        <v>936.1217907834367</v>
+        <v>1198.639629843798</v>
       </c>
       <c r="V19" t="n">
-        <v>681.4373025775499</v>
+        <v>1198.639629843798</v>
       </c>
       <c r="W19" t="n">
-        <v>392.0201325405893</v>
+        <v>909.222459806837</v>
       </c>
       <c r="X19" t="n">
-        <v>392.0201325405893</v>
+        <v>909.222459806837</v>
       </c>
       <c r="Y19" t="n">
-        <v>392.0201325405893</v>
+        <v>688.4298806633069</v>
       </c>
     </row>
     <row r="20">
@@ -5732,43 +5734,43 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
@@ -5829,22 +5831,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>534.5429807341673</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M21" t="n">
         <v>1302.911127126629</v>
       </c>
       <c r="N21" t="n">
-        <v>2051.878056918008</v>
+        <v>1632.773754790662</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136705</v>
+        <v>2302.237516093321</v>
       </c>
       <c r="P21" t="n">
         <v>2536.440602918915</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3885.755254472818</v>
+        <v>882.7763375151577</v>
       </c>
       <c r="C22" t="n">
-        <v>3885.755254472818</v>
+        <v>713.8401545872508</v>
       </c>
       <c r="D22" t="n">
-        <v>3885.755254472818</v>
+        <v>563.7235151749151</v>
       </c>
       <c r="E22" t="n">
-        <v>3885.755254472818</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F22" t="n">
-        <v>3738.865306974908</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G22" t="n">
-        <v>3570.689985294728</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H22" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>4660.934562929845</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>4660.934562929845</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U22" t="n">
-        <v>4660.934562929845</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V22" t="n">
-        <v>4406.250074723958</v>
+        <v>1285.217381488927</v>
       </c>
       <c r="W22" t="n">
-        <v>4406.250074723958</v>
+        <v>1285.217381488927</v>
       </c>
       <c r="X22" t="n">
-        <v>4178.260523825941</v>
+        <v>1285.217381488927</v>
       </c>
       <c r="Y22" t="n">
-        <v>4067.403719303058</v>
+        <v>1064.424802345397</v>
       </c>
     </row>
     <row r="23">
@@ -5963,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003443</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405199</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155909</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
@@ -6002,37 +6004,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C24" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D24" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E24" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>2375.989236263798</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>2786.879505108311</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>3400.7765748652</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M24" t="n">
-        <v>3708.096708145162</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N24" t="n">
-        <v>4037.959335809195</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O24" t="n">
-        <v>4568.699189774859</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P24" t="n">
-        <v>4773.721670557069</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S24" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T24" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U24" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V24" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W24" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X24" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y24" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="25">
@@ -6121,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>564.4843764226425</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>395.5481934947356</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>395.5481934947356</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
         <v>97.21709146028584</v>
@@ -6145,16 +6147,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1298.996260473455</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
-        <v>1013.26650646419</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V25" t="n">
-        <v>1013.26650646419</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W25" t="n">
-        <v>1013.26650646419</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X25" t="n">
-        <v>785.2769555661727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>564.4843764226425</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6209,25 +6211,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6236,19 +6238,19 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231264</v>
@@ -6260,16 +6262,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6291,37 +6293,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L27" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M27" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>330.8254548799445</v>
+        <v>4073.011257337221</v>
       </c>
       <c r="C28" t="n">
-        <v>161.8892719520376</v>
+        <v>3904.075074409314</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>3753.958434996978</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>3606.045341414585</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N28" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431055</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436452</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042135</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>4749.779469576117</v>
       </c>
       <c r="S28" t="n">
-        <v>1387.841167119728</v>
+        <v>4749.779469576117</v>
       </c>
       <c r="T28" t="n">
-        <v>1164.055751909234</v>
+        <v>4749.779469576117</v>
       </c>
       <c r="U28" t="n">
-        <v>874.927113122792</v>
+        <v>4749.779469576117</v>
       </c>
       <c r="V28" t="n">
-        <v>620.2426249169051</v>
+        <v>4749.779469576117</v>
       </c>
       <c r="W28" t="n">
-        <v>330.8254548799445</v>
+        <v>4703.441852209007</v>
       </c>
       <c r="X28" t="n">
-        <v>330.8254548799445</v>
+        <v>4475.45230131099</v>
       </c>
       <c r="Y28" t="n">
-        <v>330.8254548799445</v>
+        <v>4254.65972216746</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6442,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
         <v>1701.09316900344</v>
@@ -6449,10 +6451,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
@@ -6461,25 +6463,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
@@ -6494,16 +6496,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6540,28 +6542,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3686.322319899658</v>
+        <v>807.3465877976907</v>
       </c>
       <c r="C31" t="n">
-        <v>3517.386136971751</v>
+        <v>807.3465877976907</v>
       </c>
       <c r="D31" t="n">
-        <v>3517.386136971751</v>
+        <v>657.229948385355</v>
       </c>
       <c r="E31" t="n">
-        <v>3459.155393916676</v>
+        <v>509.3168548029619</v>
       </c>
       <c r="F31" t="n">
-        <v>3459.155393916676</v>
+        <v>362.4269073050515</v>
       </c>
       <c r="G31" t="n">
-        <v>3459.155393916676</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H31" t="n">
-        <v>3459.155393916676</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I31" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U31" t="n">
-        <v>4860.854573014292</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V31" t="n">
-        <v>4606.170084808406</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W31" t="n">
-        <v>4316.752914771445</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="X31" t="n">
-        <v>4088.763363873428</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="Y31" t="n">
-        <v>3867.970784729898</v>
+        <v>988.9950526279305</v>
       </c>
     </row>
     <row r="32">
@@ -6689,28 +6691,28 @@
         <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6777,25 +6779,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L33" t="n">
-        <v>534.5429807341673</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M33" t="n">
-        <v>1302.911127126629</v>
+        <v>1039.489963795367</v>
       </c>
       <c r="N33" t="n">
-        <v>2051.878056918008</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>675.7175987609741</v>
+        <v>4075.778457043641</v>
       </c>
       <c r="C34" t="n">
-        <v>506.7814158330672</v>
+        <v>4075.778457043641</v>
       </c>
       <c r="D34" t="n">
-        <v>356.6647764207315</v>
+        <v>3925.661817631305</v>
       </c>
       <c r="E34" t="n">
-        <v>208.7516828383384</v>
+        <v>3777.748724048912</v>
       </c>
       <c r="F34" t="n">
-        <v>208.7516828383384</v>
+        <v>3777.748724048912</v>
       </c>
       <c r="G34" t="n">
-        <v>208.7516828383384</v>
+        <v>3609.573402368732</v>
       </c>
       <c r="H34" t="n">
-        <v>208.7516828383384</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N34" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O34" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557902</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557902</v>
+        <v>4549.85945949167</v>
       </c>
       <c r="T34" t="n">
-        <v>1275.130855347408</v>
+        <v>4364.907095830083</v>
       </c>
       <c r="U34" t="n">
-        <v>1158.391637864878</v>
+        <v>4075.778457043641</v>
       </c>
       <c r="V34" t="n">
-        <v>903.7071496589914</v>
+        <v>4075.778457043641</v>
       </c>
       <c r="W34" t="n">
-        <v>903.7071496589914</v>
+        <v>4075.778457043641</v>
       </c>
       <c r="X34" t="n">
-        <v>675.7175987609741</v>
+        <v>4075.778457043641</v>
       </c>
       <c r="Y34" t="n">
-        <v>675.7175987609741</v>
+        <v>4075.778457043641</v>
       </c>
     </row>
     <row r="35">
@@ -6911,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6935,10 +6937,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6971,16 +6973,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7014,25 +7016,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>841.8631140141288</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>1646.274692278279</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2315.738453580939</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2520.760934363148</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
         <v>2612.943493278838</v>
@@ -7069,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>713.5778697504956</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="C37" t="n">
-        <v>544.6416868225887</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D37" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
         <v>97.21709146028584</v>
@@ -7117,28 +7119,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1187.92115703528</v>
+        <v>1308.553578799928</v>
       </c>
       <c r="U37" t="n">
-        <v>1187.92115703528</v>
+        <v>1019.424940013486</v>
       </c>
       <c r="V37" t="n">
-        <v>933.2366688293931</v>
+        <v>764.7404518075996</v>
       </c>
       <c r="W37" t="n">
-        <v>933.2366688293931</v>
+        <v>475.3232817706389</v>
       </c>
       <c r="X37" t="n">
-        <v>713.5778697504956</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="Y37" t="n">
-        <v>713.5778697504956</v>
+        <v>247.3337308726216</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
@@ -7172,19 +7174,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7205,19 +7207,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7251,28 +7253,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1208.995055864553</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1538.857683528586</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>1818.397748747283</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2338.69837048303</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3753.958434996979</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>3753.958434996979</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>3753.958434996979</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>3606.045341414586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>4707.698108968084</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T40" t="n">
-        <v>4707.698108968084</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U40" t="n">
-        <v>4707.698108968084</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V40" t="n">
-        <v>4453.013620762197</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W40" t="n">
-        <v>4163.596450725237</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>3935.606899827219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>3935.606899827219</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7397,25 +7399,25 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
@@ -7424,19 +7426,19 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
@@ -7485,22 +7487,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277035</v>
       </c>
       <c r="L42" t="n">
-        <v>796.3635653766202</v>
+        <v>534.5429807341677</v>
       </c>
       <c r="M42" t="n">
-        <v>1103.683698656582</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N42" t="n">
-        <v>1908.095276920732</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O42" t="n">
         <v>2331.418122136705</v>
@@ -7543,40 +7545,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>653.6713633309776</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C43" t="n">
-        <v>653.6713633309776</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D43" t="n">
-        <v>503.5547239186418</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E43" t="n">
-        <v>355.6416303362487</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7585,34 +7587,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S43" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1387.841167119728</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U43" t="n">
-        <v>1098.712528333286</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V43" t="n">
-        <v>943.0885333679382</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W43" t="n">
-        <v>653.6713633309776</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="X43" t="n">
-        <v>653.6713633309776</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y43" t="n">
-        <v>653.6713633309776</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="44">
@@ -7625,7 +7627,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
         <v>1701.09316900344</v>
@@ -7634,19 +7636,19 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822464</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028604</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
         <v>889.2841917514085</v>
@@ -7655,40 +7657,40 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7713,34 +7715,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I45" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K45" t="n">
-        <v>549.5984374701561</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L45" t="n">
-        <v>806.1650729342614</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M45" t="n">
-        <v>1113.485206214223</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
-        <v>1443.347833878256</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O45" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P45" t="n">
         <v>2317.834075963124</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3946.383537937098</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>3777.447355009191</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>3627.330715596855</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>3627.330715596855</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>3627.330715596855</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L46" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M46" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N46" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O46" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q46" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R46" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S46" t="n">
-        <v>4718.186215827443</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T46" t="n">
-        <v>4718.186215827443</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U46" t="n">
-        <v>4429.057577041001</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V46" t="n">
-        <v>4174.373088835115</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>4174.373088835115</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>3946.383537937098</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>3946.383537937098</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8073,10 +8075,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>199.0269485415591</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270195</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8310,7 +8312,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>275.0442842992664</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8532,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>145.0294169142015</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8541,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8766,13 +8768,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>29.47535963978149</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
         <v>465.7050637499999</v>
@@ -8781,7 +8783,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>52.49733361305249</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -8790,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9009,10 +9011,10 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>29.47535963978231</v>
       </c>
       <c r="M15" t="n">
-        <v>176.7176547498455</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -9021,7 +9023,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -9240,13 +9242,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>180.0237016735871</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9255,13 +9257,13 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>308.1251096272032</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445217</v>
@@ -9398,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9489,19 +9491,19 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>423.3376789165117</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>29.47535963978262</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9659,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9717,10 +9719,10 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>360.5026862907255</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9729,16 +9731,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>253.7371603504722</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445213</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9951,31 +9953,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10118,7 +10120,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10188,31 +10190,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10425,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10434,10 +10436,10 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>73.53204524670076</v>
       </c>
       <c r="N33" t="n">
-        <v>423.3376789165117</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10446,7 +10448,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>34.78428385445218</v>
@@ -10598,7 +10600,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627457</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
@@ -10662,10 +10664,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10674,16 +10676,16 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q36" t="n">
-        <v>5.100663089359941</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10829,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10899,13 +10901,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10917,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q39" t="n">
-        <v>199.7396287231155</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11139,19 +11141,19 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>409.7003683229573</v>
       </c>
       <c r="N42" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>145.2351313103796</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -11160,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11303,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928307</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11373,13 +11375,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>9.900512684486102</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11388,10 +11390,10 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>277.6717966208057</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23413,19 +23415,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>37.08296280093811</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23434,7 +23436,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
@@ -23473,13 +23475,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>180.0707394099558</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23650,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>61.34209567542518</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23659,13 +23661,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
@@ -23713,13 +23715,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>17.87900067063663</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,19 +23889,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
@@ -23908,7 +23910,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,19 +23937,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>60.5827308840385</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>186.8842880752169</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23956,7 +23958,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24127,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,7 +24177,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -24184,16 +24186,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>40.57574314554282</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>108.8364168744401</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24364,13 +24366,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24379,7 +24381,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24415,22 +24417,22 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>3.364895929404668</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24598,19 +24600,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>84.59001433137811</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
@@ -24652,22 +24654,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>240.6487571431526</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24838,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>88.78552702204449</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>14.35509624133158</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24892,16 +24894,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25075,7 +25077,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25087,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,25 +25122,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>38.44472103341744</v>
       </c>
       <c r="U34" t="n">
-        <v>170.6655270908727</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25312,7 +25314,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25321,13 +25323,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
         <v>110.419245464272</v>
@@ -25357,25 +25359,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>33.08849621799493</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>8.247444300928578</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25546,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25555,10 +25557,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>166.4935684633776</v>
@@ -25597,13 +25599,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>46.29591057785697</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25789,13 +25791,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>166.4935684633776</v>
@@ -25804,7 +25806,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,25 +25833,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>98.06988830813376</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338525</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26023,10 +26025,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26035,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
@@ -26068,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>166.6434887724158</v>
+        <v>82.393833183385</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26083,7 +26085,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>744790.5744110565</v>
+        <v>744790.5744110564</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>744790.5744110565</v>
+        <v>744790.5744110564</v>
       </c>
     </row>
     <row r="7">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>744790.5744110564</v>
+        <v>744790.5744110565</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>744790.5744110564</v>
+        <v>744790.5744110565</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>744790.5744110562</v>
+        <v>744790.5744110564</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>744790.5744110565</v>
+        <v>744790.5744110564</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>744790.5744110565</v>
+        <v>744790.5744110564</v>
       </c>
     </row>
   </sheetData>
@@ -26311,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677359.4601380336</v>
+        <v>677359.4601380335</v>
       </c>
       <c r="C2" t="n">
-        <v>677359.4601380334</v>
+        <v>677359.4601380335</v>
       </c>
       <c r="D2" t="n">
-        <v>677359.4601380331</v>
+        <v>677359.4601380333</v>
       </c>
       <c r="E2" t="n">
-        <v>645197.9485672197</v>
+        <v>645197.948567219</v>
       </c>
       <c r="F2" t="n">
         <v>645197.9485672194</v>
@@ -26329,31 +26331,31 @@
         <v>645197.9485672194</v>
       </c>
       <c r="H2" t="n">
+        <v>645197.9485672195</v>
+      </c>
+      <c r="I2" t="n">
         <v>645197.9485672194</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
+        <v>645197.9485672194</v>
+      </c>
+      <c r="K2" t="n">
+        <v>645197.9485672197</v>
+      </c>
+      <c r="L2" t="n">
+        <v>645197.9485672192</v>
+      </c>
+      <c r="M2" t="n">
         <v>645197.9485672195</v>
       </c>
-      <c r="J2" t="n">
+      <c r="N2" t="n">
+        <v>645197.9485672197</v>
+      </c>
+      <c r="O2" t="n">
+        <v>645197.9485672194</v>
+      </c>
+      <c r="P2" t="n">
         <v>645197.9485672193</v>
-      </c>
-      <c r="K2" t="n">
-        <v>645197.9485672193</v>
-      </c>
-      <c r="L2" t="n">
-        <v>645197.9485672193</v>
-      </c>
-      <c r="M2" t="n">
-        <v>645197.9485672194</v>
-      </c>
-      <c r="N2" t="n">
-        <v>645197.9485672194</v>
-      </c>
-      <c r="O2" t="n">
-        <v>645197.9485672193</v>
-      </c>
-      <c r="P2" t="n">
-        <v>645197.9485672192</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768964</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925927</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>5.850951906879722e-11</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26402,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.540129233035259e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26430,16 +26432,16 @@
         <v>22174.60758687071</v>
       </c>
       <c r="G4" t="n">
+        <v>22174.60758687062</v>
+      </c>
+      <c r="H4" t="n">
+        <v>22174.60758687069</v>
+      </c>
+      <c r="I4" t="n">
         <v>22174.60758687071</v>
       </c>
-      <c r="H4" t="n">
-        <v>22174.60758687071</v>
-      </c>
-      <c r="I4" t="n">
-        <v>22174.6075868707</v>
-      </c>
       <c r="J4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687076</v>
       </c>
       <c r="K4" t="n">
         <v>22174.60758687071</v>
@@ -26454,10 +26456,10 @@
         <v>22174.60758687071</v>
       </c>
       <c r="O4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687067</v>
       </c>
       <c r="P4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.6075868707</v>
       </c>
     </row>
     <row r="5">
@@ -26482,34 +26484,34 @@
         <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-161100.3649264448</v>
+        <v>-161100.3649264449</v>
       </c>
       <c r="C6" t="n">
-        <v>428867.5142880995</v>
+        <v>428867.5142880996</v>
       </c>
       <c r="D6" t="n">
-        <v>428867.5142880992</v>
+        <v>428867.5142880994</v>
       </c>
       <c r="E6" t="n">
-        <v>5875.978554735935</v>
+        <v>5875.97855473547</v>
       </c>
       <c r="F6" t="n">
-        <v>531036.0150316324</v>
+        <v>531036.0150316322</v>
       </c>
       <c r="G6" t="n">
+        <v>531036.0150316323</v>
+      </c>
+      <c r="H6" t="n">
+        <v>531036.0150316323</v>
+      </c>
+      <c r="I6" t="n">
         <v>531036.0150316322</v>
       </c>
-      <c r="H6" t="n">
-        <v>531036.0150316322</v>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
+        <v>354612.7958390391</v>
+      </c>
+      <c r="K6" t="n">
         <v>531036.0150316323</v>
       </c>
-      <c r="J6" t="n">
-        <v>354612.7958390393</v>
-      </c>
-      <c r="K6" t="n">
-        <v>531036.015031632</v>
-      </c>
       <c r="L6" t="n">
-        <v>531036.015031632</v>
+        <v>531036.0150316319</v>
       </c>
       <c r="M6" t="n">
         <v>396234.999797795</v>
       </c>
       <c r="N6" t="n">
-        <v>531036.0150316322</v>
+        <v>531036.0150316324</v>
       </c>
       <c r="O6" t="n">
         <v>531036.015031632</v>
       </c>
       <c r="P6" t="n">
-        <v>531036.0150316319</v>
+        <v>531036.015031632</v>
       </c>
     </row>
   </sheetData>
@@ -26713,16 +26715,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>7.313689883599653e-14</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>7.313689883599653e-14</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>7.313689883599653e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>7.313689883599653e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26738,13 +26740,13 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541002</v>
@@ -26753,13 +26755,13 @@
         <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="I3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="J3" t="n">
         <v>830.3824054541002</v>
-      </c>
-      <c r="I3" t="n">
-        <v>830.3824054541006</v>
-      </c>
-      <c r="J3" t="n">
-        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
         <v>830.3824054541002</v>
@@ -26768,16 +26770,16 @@
         <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
     </row>
     <row r="4">
@@ -26790,7 +26792,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26932,7 +26934,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>7.313689883599653e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.638741237014</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26996,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27169,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>7.313689883599653e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27376,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27394,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27424,25 +27426,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>57.30736471423111</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>344.4235138103857</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,16 +27536,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>141.9938968421883</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>80.4507564208193</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27594,7 +27596,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27616,7 +27618,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>30.63262835935438</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27628,10 +27630,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27661,28 +27663,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>84.85471839448093</v>
       </c>
     </row>
     <row r="6">
@@ -27774,7 +27776,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27783,7 +27785,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>20.73374463251267</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27792,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27837,10 +27839,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>195.105567768083</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,19 +27852,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>73.09636506735563</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27871,7 +27873,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,22 +27906,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>190.7343602842063</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28017,7 +28019,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28026,13 +28028,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>118.8219696707707</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,31 +28055,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>281.5452435530037</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -29272,7 +29274,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>-7.313689883599653e-14</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29281,7 +29283,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>-7.313689883599653e-14</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -29323,7 +29325,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>1.335820343228988e-12</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -29332,16 +29334,16 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>-7.313689883599653e-14</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>-7.313689883599653e-14</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>-7.313689883599653e-14</v>
       </c>
     </row>
     <row r="27">
@@ -30460,13 +30462,13 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>7.313689883599653e-14</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>7.313689883599653e-14</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -30511,10 +30513,10 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>-1.051603248924948e-12</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>7.313689883599653e-14</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -31276,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,22 +31460,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31513,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,22 +31697,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31750,10 +31752,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176652</v>
@@ -31762,37 +31764,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31835,31 +31837,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
@@ -31868,7 +31870,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32461,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304442</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565521</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104652</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32783,43 +32785,43 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813464</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855528</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458551</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361493</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263752</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P25" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337673</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33646,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,46 +34201,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34278,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H43" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K43" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L43" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P43" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S43" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H46" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K46" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L46" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P46" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S46" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34793,10 +34795,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>220.2054057751866</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35015,7 +35017,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,13 +35026,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>296.2227415328939</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35094,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047526</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35261,13 +35263,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35331,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349816</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>71.38553859468823</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879393</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560244</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178378</v>
+        <v>334.8610358541607</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507419</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,19 +35567,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
         <v>236.2373515206029</v>
@@ -35586,7 +35588,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35729,10 +35731,10 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>278.7330645958066</v>
       </c>
       <c r="M15" t="n">
-        <v>487.1420318003117</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N15" t="n">
         <v>333.1945733980128</v>
@@ -35741,7 +35743,7 @@
         <v>676.2260215178376</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
         <v>88.0130327850741</v>
@@ -35960,13 +35962,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594834</v>
+        <v>429.2814066296115</v>
       </c>
       <c r="M18" t="n">
         <v>310.4243770504663</v>
@@ -35975,13 +35977,13 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>590.4888118683114</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36118,16 +36120,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K21" t="n">
         <v>150.5754385879392</v>
@@ -36206,19 +36208,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N21" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315246</v>
+        <v>236.5687745713073</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303332</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221119</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349819</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490674</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594837</v>
+        <v>609.7603912467498</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504665</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>536.1008625915805</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315248</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507422</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36838,7 +36840,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36908,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37145,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
         <v>150.5754385879392</v>
@@ -37154,10 +37156,10 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004661</v>
+        <v>383.956422297167</v>
       </c>
       <c r="N33" t="n">
-        <v>756.5322523145245</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O33" t="n">
         <v>282.3637022411081</v>
@@ -37166,7 +37168,7 @@
         <v>207.0934149315246</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37306,19 +37308,19 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951475</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
         <v>570.6060255109123</v>
@@ -37327,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q36" t="n">
-        <v>93.11369587443404</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37476,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,7 +37545,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
@@ -37564,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q39" t="n">
-        <v>287.7526615081896</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37713,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415081</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734237</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O42" t="n">
-        <v>427.5988335514877</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M43" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.32965022211</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L45" t="n">
-        <v>259.1582176405104</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523304</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686868</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M46" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_3_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_3_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3131100.025643923</v>
+        <v>3124083.010752212</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -673,7 +673,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>336.6153965471916</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -706,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>25.30758686808333</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>37.83808333974894</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -828,10 +828,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>25.31590541686235</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -898,10 +898,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>320.797539652425</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -910,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -958,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>301.3832202615727</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>142.2665117930623</v>
       </c>
       <c r="F7" t="n">
-        <v>124.6873033904186</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1138,13 +1138,13 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
@@ -1153,7 +1153,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>58.58442069852236</v>
       </c>
       <c r="V8" t="n">
-        <v>137.0178981859286</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1293,28 +1293,28 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>14.52687838733141</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>16.14365212156756</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1372,13 +1372,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710085</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1527,19 +1527,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>142.7490173809992</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>79.25260017039366</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -1575,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1621,13 +1621,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>118.4898845065121</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1815,10 +1815,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>115.526976800218</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1855,16 +1855,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113172</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274084</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0785952498011</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2001,16 +2001,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>99.35306432336047</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2098,10 +2098,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2140,13 +2140,13 @@
         <v>251.078595249801</v>
       </c>
       <c r="V20" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2289,25 +2289,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>211.5619001782852</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>204.1291651532053</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2487,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>215.8833550539566</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>143.3158222056515</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051975</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2614,13 +2614,13 @@
         <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174121</v>
       </c>
       <c r="X26" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2718,16 +2718,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2760,25 +2760,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>45.87424119343839</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>36.4189118054543</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>85.05437413388448</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>152.138472222046</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3192,19 +3192,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>183.1028400249718</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>204.1291651532053</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.482788338502</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>57.85017494300128</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>188.4590648403943</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
@@ -3720,7 +3720,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>59.77945773664938</v>
       </c>
     </row>
     <row r="41">
@@ -3742,13 +3742,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U41" t="n">
-        <v>251.0785952498009</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3954,7 +3954,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>143.3158222056519</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>115.5269768002183</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
@@ -4197,13 +4197,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>183.4653217847138</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1036.358670716696</v>
+        <v>1327.372931623164</v>
       </c>
       <c r="C2" t="n">
-        <v>1036.358670716696</v>
+        <v>958.4104146827526</v>
       </c>
       <c r="D2" t="n">
-        <v>1036.358670716696</v>
+        <v>958.4104146827526</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>958.4104146827526</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>547.4245098931451</v>
       </c>
       <c r="G2" t="n">
         <v>207.4089578252748</v>
@@ -4330,13 +4330,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U2" t="n">
-        <v>2169.72394915887</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V2" t="n">
-        <v>1838.661061815299</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W2" t="n">
-        <v>1838.661061815299</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="X2" t="n">
-        <v>1813.097842756629</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="Y2" t="n">
-        <v>1422.958510780817</v>
+        <v>1327.372931623164</v>
       </c>
     </row>
     <row r="3">
@@ -4400,40 +4400,40 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>689.9086980046678</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="C4" t="n">
-        <v>520.9725150767609</v>
+        <v>377.5443364482876</v>
       </c>
       <c r="D4" t="n">
-        <v>370.8558756644252</v>
+        <v>227.4276970359519</v>
       </c>
       <c r="E4" t="n">
-        <v>222.942782082032</v>
+        <v>79.51460345355875</v>
       </c>
       <c r="F4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1422.14692331494</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C5" t="n">
-        <v>1422.14692331494</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D5" t="n">
-        <v>1422.14692331494</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W5" t="n">
-        <v>2113.174258592771</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X5" t="n">
-        <v>2113.174258592771</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y5" t="n">
-        <v>1808.746763379062</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="6">
@@ -4658,10 +4658,10 @@
         <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>477.9194859165262</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C7" t="n">
-        <v>477.9194859165262</v>
+        <v>559.1928012785276</v>
       </c>
       <c r="D7" t="n">
-        <v>327.8028465041905</v>
+        <v>559.1928012785276</v>
       </c>
       <c r="E7" t="n">
-        <v>179.8897529217974</v>
+        <v>415.489254012808</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>477.9194859165262</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="8">
@@ -4780,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1345.301239238533</v>
+        <v>1954.141365880777</v>
       </c>
       <c r="C8" t="n">
-        <v>1345.301239238533</v>
+        <v>1954.141365880777</v>
       </c>
       <c r="D8" t="n">
-        <v>1345.301239238533</v>
+        <v>1595.875667274026</v>
       </c>
       <c r="E8" t="n">
-        <v>959.5129866402885</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>799.1015098861747</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2247.308246834948</v>
+        <v>2637.972908494462</v>
       </c>
       <c r="V8" t="n">
-        <v>2108.906329475425</v>
+        <v>2306.910021150891</v>
       </c>
       <c r="W8" t="n">
-        <v>2108.906329475425</v>
+        <v>1954.141365880777</v>
       </c>
       <c r="X8" t="n">
-        <v>1735.440571214345</v>
+        <v>1954.141365880777</v>
       </c>
       <c r="Y8" t="n">
-        <v>1345.301239238533</v>
+        <v>1954.141365880777</v>
       </c>
     </row>
     <row r="9">
@@ -4880,19 +4880,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>218.1627947174723</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C10" t="n">
-        <v>218.1627947174723</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="D10" t="n">
-        <v>218.1627947174723</v>
+        <v>409.0761618661916</v>
       </c>
       <c r="E10" t="n">
-        <v>70.24970113507916</v>
+        <v>261.1630682837985</v>
       </c>
       <c r="F10" t="n">
-        <v>70.24970113507916</v>
+        <v>114.2731207858881</v>
       </c>
       <c r="G10" t="n">
-        <v>70.24970113507916</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H10" t="n">
-        <v>70.24970113507916</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>438.9553738610024</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>438.9553738610024</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>438.9553738610024</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>438.9553738610024</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.1627947174723</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5017,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
@@ -5035,16 +5035,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5062,31 +5062,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5117,7 +5117,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
         <v>138.7081686256435</v>
@@ -5126,13 +5126,13 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>901.674922584592</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.043068977054</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N12" t="n">
-        <v>1999.905696641086</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
         <v>2331.418122136705</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>879.2482765610114</v>
+        <v>493.3586382081045</v>
       </c>
       <c r="C13" t="n">
-        <v>710.3120936331045</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="D13" t="n">
-        <v>560.1954542207687</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="E13" t="n">
-        <v>412.2823606383756</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F13" t="n">
         <v>265.3924131404652</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5205,10 +5205,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5223,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557902</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V13" t="n">
-        <v>1244.231782352015</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="W13" t="n">
-        <v>1244.231782352015</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="X13" t="n">
-        <v>1244.231782352015</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="Y13" t="n">
-        <v>1023.439203208485</v>
+        <v>675.0071030383442</v>
       </c>
     </row>
     <row r="14">
@@ -5254,10 +5254,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D14" t="n">
         <v>1701.093169003441</v>
@@ -5266,22 +5266,22 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795207</v>
@@ -5293,37 +5293,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5354,22 +5354,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277035</v>
       </c>
       <c r="L15" t="n">
-        <v>563.7235867775518</v>
+        <v>534.5429807341677</v>
       </c>
       <c r="M15" t="n">
-        <v>1332.091733170013</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N15" t="n">
-        <v>1661.954360834046</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O15" t="n">
         <v>2331.418122136705</v>
@@ -5412,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5454,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U16" t="n">
-        <v>1209.787631771461</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V16" t="n">
-        <v>955.1031435655738</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W16" t="n">
-        <v>665.6859735286132</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X16" t="n">
-        <v>437.6964226305959</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y16" t="n">
-        <v>216.9038434870658</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="17">
@@ -5491,37 +5491,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155885</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
@@ -5533,34 +5533,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5591,7 +5591,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
         <v>263.5382936126482</v>
@@ -5600,19 +5600,19 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>1099.417155020476</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1406.737288300438</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>506.7814158330672</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C19" t="n">
-        <v>506.7814158330672</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D19" t="n">
-        <v>356.6647764207315</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5679,10 +5679,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5700,25 +5700,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T19" t="n">
-        <v>1298.996260473455</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U19" t="n">
-        <v>1198.639629843798</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V19" t="n">
-        <v>1198.639629843798</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W19" t="n">
-        <v>909.222459806837</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>909.222459806837</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y19" t="n">
-        <v>688.4298806633069</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="20">
@@ -5743,10 +5743,10 @@
         <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
@@ -5764,7 +5764,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5831,25 +5831,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
-        <v>1632.773754790662</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2302.237516093321</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>882.7763375151577</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>713.8401545872508</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>563.7235151749151</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
         <v>97.21709146028584</v>
@@ -5937,25 +5937,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>1498.916270557902</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V22" t="n">
-        <v>1285.217381488927</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W22" t="n">
-        <v>1285.217381488927</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="X22" t="n">
-        <v>1285.217381488927</v>
+        <v>303.4081673726145</v>
       </c>
       <c r="Y22" t="n">
-        <v>1064.424802345397</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
@@ -5989,52 +5989,52 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6068,22 +6068,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>891.4406401619856</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F25" t="n">
         <v>97.21709146028584</v>
@@ -6171,28 +6171,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.21084526296</v>
+        <v>969.8571620312833</v>
       </c>
       <c r="U25" t="n">
-        <v>786.0822064765186</v>
+        <v>969.8571620312833</v>
       </c>
       <c r="V25" t="n">
-        <v>531.3977182706318</v>
+        <v>715.1726738253965</v>
       </c>
       <c r="W25" t="n">
-        <v>241.9805482336712</v>
+        <v>425.7555037884359</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028584</v>
+        <v>425.7555037884359</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>425.7555037884359</v>
       </c>
     </row>
     <row r="26">
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6223,7 +6223,7 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823786</v>
@@ -6232,13 +6232,13 @@
         <v>889.2841917514081</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6250,28 +6250,28 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6293,25 +6293,25 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636248</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
         <v>1228.513823643586</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4073.011257337221</v>
+        <v>581.2185435662825</v>
       </c>
       <c r="C28" t="n">
-        <v>3904.075074409314</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="D28" t="n">
-        <v>3753.958434996978</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E28" t="n">
-        <v>3606.045341414585</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F28" t="n">
-        <v>3459.155393916675</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G28" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
-        <v>4411.546387431055</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>4645.421365436452</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>4822.021130042135</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>4749.779469576117</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>4749.779469576117</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>4749.779469576117</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U28" t="n">
-        <v>4749.779469576117</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V28" t="n">
-        <v>4749.779469576117</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="W28" t="n">
-        <v>4703.441852209007</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="X28" t="n">
-        <v>4475.45230131099</v>
+        <v>983.6595875400524</v>
       </c>
       <c r="Y28" t="n">
-        <v>4254.65972216746</v>
+        <v>762.8670083965222</v>
       </c>
     </row>
     <row r="29">
@@ -6475,16 +6475,16 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
@@ -6560,10 +6560,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>807.3465877976907</v>
+        <v>481.4617027208816</v>
       </c>
       <c r="C31" t="n">
-        <v>807.3465877976907</v>
+        <v>395.5481934947356</v>
       </c>
       <c r="D31" t="n">
-        <v>657.229948385355</v>
+        <v>395.5481934947356</v>
       </c>
       <c r="E31" t="n">
-        <v>509.3168548029619</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F31" t="n">
-        <v>362.4269073050515</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G31" t="n">
-        <v>208.7516828383384</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028584</v>
@@ -6645,28 +6645,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T31" t="n">
-        <v>1498.916270557902</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U31" t="n">
-        <v>1209.787631771461</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="V31" t="n">
-        <v>1209.787631771461</v>
+        <v>709.4512536188989</v>
       </c>
       <c r="W31" t="n">
-        <v>1209.787631771461</v>
+        <v>709.4512536188989</v>
       </c>
       <c r="X31" t="n">
-        <v>1209.787631771461</v>
+        <v>481.4617027208816</v>
       </c>
       <c r="Y31" t="n">
-        <v>988.9950526279305</v>
+        <v>481.4617027208816</v>
       </c>
     </row>
     <row r="32">
@@ -6691,19 +6691,19 @@
         <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6718,7 +6718,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
@@ -6782,19 +6782,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1039.489963795367</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4075.778457043641</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>4075.778457043641</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>3925.661817631305</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>3777.748724048912</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>3777.748724048912</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>3609.573402368732</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>4549.85945949167</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>4364.907095830083</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>4075.778457043641</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V34" t="n">
-        <v>4075.778457043641</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W34" t="n">
-        <v>4075.778457043641</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="X34" t="n">
-        <v>4075.778457043641</v>
+        <v>303.4081673726145</v>
       </c>
       <c r="Y34" t="n">
-        <v>4075.778457043641</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6937,10 +6937,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6949,7 +6949,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -7025,7 +7025,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
         <v>1558.376451307619</v>
@@ -7034,10 +7034,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7071,10 +7071,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
         <v>97.21709146028584</v>
@@ -7119,28 +7119,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557902</v>
+        <v>1440.481750413457</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557902</v>
+        <v>1240.561740329009</v>
       </c>
       <c r="T37" t="n">
-        <v>1308.553578799928</v>
+        <v>1016.776325118515</v>
       </c>
       <c r="U37" t="n">
-        <v>1019.424940013486</v>
+        <v>727.647686332073</v>
       </c>
       <c r="V37" t="n">
-        <v>764.7404518075996</v>
+        <v>727.647686332073</v>
       </c>
       <c r="W37" t="n">
-        <v>475.3232817706389</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X37" t="n">
-        <v>247.3337308726216</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y37" t="n">
-        <v>247.3337308726216</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="38">
@@ -7162,25 +7162,25 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
@@ -7262,7 +7262,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
         <v>1558.376451307619</v>
@@ -7271,10 +7271,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7356,25 +7356,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S40" t="n">
-        <v>1382.222354598086</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T40" t="n">
-        <v>1158.436939387592</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U40" t="n">
-        <v>869.3083006011506</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V40" t="n">
-        <v>614.6238123952637</v>
+        <v>675.007103038344</v>
       </c>
       <c r="W40" t="n">
-        <v>325.2066423583032</v>
+        <v>385.5899330013834</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028584</v>
+        <v>157.600382103366</v>
       </c>
       <c r="Y40" t="n">
         <v>97.21709146028584</v>
@@ -7390,7 +7390,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
         <v>1701.09316900344</v>
@@ -7405,16 +7405,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7423,37 +7423,37 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7487,28 +7487,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277035</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>534.5429807341677</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7545,40 +7545,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7587,34 +7587,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1075.210845262961</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U43" t="n">
-        <v>786.0822064765191</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V43" t="n">
-        <v>531.3977182706323</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W43" t="n">
-        <v>241.9805482336716</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7636,49 +7636,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
         <v>4262.3578574653</v>
@@ -7715,40 +7715,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7809,13 +7809,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7824,31 +7824,31 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1158.436939387592</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U46" t="n">
-        <v>869.3083006011506</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V46" t="n">
-        <v>614.6238123952637</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W46" t="n">
-        <v>325.2066423583032</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028584</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y46" t="n">
         <v>97.21709146028584</v>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747073</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8306,13 +8306,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>435.923890002883</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>275.0442842992664</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8774,16 +8774,16 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>52.49733361305249</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -9011,16 +9011,16 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>29.47535963978231</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>423.337678916511</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9248,7 +9248,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>180.0237016735871</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9260,10 +9260,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445217</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9479,31 +9479,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>29.47535963978262</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,13 +9716,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>360.5026862907255</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -10120,7 +10120,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10430,22 +10430,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>73.53204524670076</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10594,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,31 +11138,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>409.7003683229573</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928307</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208057</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,19 +23415,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>37.08296280093811</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>87.99422092823417</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23463,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -23484,7 +23484,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>61.34209567542518</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23703,10 +23703,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23889,16 +23889,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23910,7 +23910,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,25 +23940,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>186.8842880752169</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24126,25 +24126,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24177,25 +24177,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>40.57574314554282</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>14.45548819888947</v>
       </c>
     </row>
     <row r="23">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24375,7 +24375,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>5.6642060044326</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>82.39383318338568</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24606,16 +24606,16 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24648,25 +24648,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>240.6487571431526</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>189.2907435835829</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>82.19244696474335</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>14.35509624133158</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25080,19 +25080,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -25122,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>38.44472103341744</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>14.45548819888947</v>
       </c>
     </row>
     <row r="35">
@@ -25311,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25359,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>52.11417746079152</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>33.08849621799493</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25608,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>158.8051956154454</v>
       </c>
     </row>
     <row r="41">
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>82.39383318338525</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26073,7 +26073,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>82.393833183385</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26085,13 +26085,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>103.0576765518772</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>744790.5744110564</v>
+        <v>744790.5744110562</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>744790.5744110565</v>
+        <v>744790.5744110564</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>744790.5744110565</v>
+        <v>744790.5744110564</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>744790.5744110565</v>
+        <v>744790.5744110564</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>744790.5744110564</v>
+        <v>744790.5744110565</v>
       </c>
     </row>
     <row r="15">
@@ -26313,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677359.4601380335</v>
+        <v>677359.4601380334</v>
       </c>
       <c r="C2" t="n">
         <v>677359.4601380335</v>
       </c>
       <c r="D2" t="n">
-        <v>677359.4601380333</v>
+        <v>677359.4601380334</v>
       </c>
       <c r="E2" t="n">
-        <v>645197.948567219</v>
+        <v>645197.9485672192</v>
       </c>
       <c r="F2" t="n">
         <v>645197.9485672194</v>
@@ -26331,31 +26331,31 @@
         <v>645197.9485672194</v>
       </c>
       <c r="H2" t="n">
+        <v>645197.9485672194</v>
+      </c>
+      <c r="I2" t="n">
+        <v>645197.9485672191</v>
+      </c>
+      <c r="J2" t="n">
+        <v>645197.9485672193</v>
+      </c>
+      <c r="K2" t="n">
+        <v>645197.9485672194</v>
+      </c>
+      <c r="L2" t="n">
+        <v>645197.9485672194</v>
+      </c>
+      <c r="M2" t="n">
+        <v>645197.9485672197</v>
+      </c>
+      <c r="N2" t="n">
         <v>645197.9485672195</v>
-      </c>
-      <c r="I2" t="n">
-        <v>645197.9485672194</v>
-      </c>
-      <c r="J2" t="n">
-        <v>645197.9485672194</v>
-      </c>
-      <c r="K2" t="n">
-        <v>645197.9485672197</v>
-      </c>
-      <c r="L2" t="n">
-        <v>645197.9485672192</v>
-      </c>
-      <c r="M2" t="n">
-        <v>645197.9485672195</v>
-      </c>
-      <c r="N2" t="n">
-        <v>645197.9485672197</v>
       </c>
       <c r="O2" t="n">
         <v>645197.9485672194</v>
       </c>
       <c r="P2" t="n">
-        <v>645197.9485672193</v>
+        <v>645197.9485672197</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768964</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26392,7 +26392,7 @@
         <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>5.850951906879722e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.540129233035259e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26426,22 +26426,22 @@
         <v>165632.8677865244</v>
       </c>
       <c r="E4" t="n">
+        <v>22174.60758687067</v>
+      </c>
+      <c r="F4" t="n">
+        <v>22174.6075868707</v>
+      </c>
+      <c r="G4" t="n">
         <v>22174.60758687071</v>
       </c>
-      <c r="F4" t="n">
+      <c r="H4" t="n">
         <v>22174.60758687071</v>
-      </c>
-      <c r="G4" t="n">
-        <v>22174.60758687062</v>
-      </c>
-      <c r="H4" t="n">
-        <v>22174.60758687069</v>
       </c>
       <c r="I4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="J4" t="n">
-        <v>22174.60758687076</v>
+        <v>22174.60758687075</v>
       </c>
       <c r="K4" t="n">
         <v>22174.60758687071</v>
@@ -26456,10 +26456,10 @@
         <v>22174.60758687071</v>
       </c>
       <c r="O4" t="n">
-        <v>22174.60758687067</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="P4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687071</v>
       </c>
     </row>
     <row r="5">
@@ -26481,10 +26481,10 @@
         <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871662</v>
@@ -26493,25 +26493,25 @@
         <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26524,46 +26524,46 @@
         <v>-161100.3649264449</v>
       </c>
       <c r="C6" t="n">
-        <v>428867.5142880996</v>
+        <v>428867.5142880997</v>
       </c>
       <c r="D6" t="n">
-        <v>428867.5142880994</v>
+        <v>428867.5142880995</v>
       </c>
       <c r="E6" t="n">
-        <v>5875.97855473547</v>
+        <v>4901.387295013871</v>
       </c>
       <c r="F6" t="n">
-        <v>531036.0150316322</v>
+        <v>530061.4237719103</v>
       </c>
       <c r="G6" t="n">
-        <v>531036.0150316323</v>
+        <v>530061.4237719107</v>
       </c>
       <c r="H6" t="n">
-        <v>531036.0150316323</v>
+        <v>530061.4237719105</v>
       </c>
       <c r="I6" t="n">
-        <v>531036.0150316322</v>
+        <v>530061.4237719101</v>
       </c>
       <c r="J6" t="n">
-        <v>354612.7958390391</v>
+        <v>353638.2045793174</v>
       </c>
       <c r="K6" t="n">
-        <v>531036.0150316323</v>
+        <v>530061.4237719105</v>
       </c>
       <c r="L6" t="n">
-        <v>531036.0150316319</v>
+        <v>530061.4237719105</v>
       </c>
       <c r="M6" t="n">
-        <v>396234.999797795</v>
+        <v>395260.4085380734</v>
       </c>
       <c r="N6" t="n">
-        <v>531036.0150316324</v>
+        <v>530061.4237719106</v>
       </c>
       <c r="O6" t="n">
-        <v>531036.015031632</v>
+        <v>530061.4237719105</v>
       </c>
       <c r="P6" t="n">
-        <v>531036.015031632</v>
+        <v>530061.4237719107</v>
       </c>
     </row>
   </sheetData>
@@ -26715,16 +26715,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>7.313689883599653e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>7.313689883599653e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>7.313689883599653e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>7.313689883599653e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26737,28 +26737,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541002</v>
@@ -26770,16 +26770,16 @@
         <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26934,7 +26934,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>7.313689883599653e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,10 +26968,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26998,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27171,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>7.313689883599653e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27393,7 +27393,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>77.16877347360338</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27426,10 +27426,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27444,7 +27444,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>344.4235138103857</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>141.9938968421883</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27548,10 +27548,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>120.1051426060689</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27618,10 +27618,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>44.47535211858258</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27630,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27678,13 +27678,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>84.85471839448093</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27776,19 +27776,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>4.167450853506864</v>
       </c>
       <c r="F7" t="n">
-        <v>20.73374463251267</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801578</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27858,13 +27858,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27873,7 +27873,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,28 +27900,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>192.6397468097669</v>
       </c>
       <c r="V8" t="n">
-        <v>190.7343602842063</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28013,28 +28013,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>152.7829238717195</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>118.8219696707707</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28067,7 +28067,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28092,7 +28092,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>-5.487218467042014e-13</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -29274,7 +29274,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-7.313689883599653e-14</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29283,7 +29283,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>-7.313689883599653e-14</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -29325,7 +29325,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>1.335820343228988e-12</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -29334,16 +29334,16 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>-7.313689883599653e-14</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="X26" t="n">
-        <v>-7.313689883599653e-14</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>-7.313689883599653e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -30462,13 +30462,13 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>7.313689883599653e-14</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>7.313689883599653e-14</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -30513,10 +30513,10 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>-1.051603248924948e-12</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>7.313689883599653e-14</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,22 +31697,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32481,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32499,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32551,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32560,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32578,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32788,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32797,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32815,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,46 +34201,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H43" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K43" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L43" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P43" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H46" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K46" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L46" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P46" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35026,13 +35026,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>296.2227415328939</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35172,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35263,13 +35263,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35494,16 +35494,16 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004662</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O12" t="n">
-        <v>334.8610358541607</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
         <v>207.0934149315247</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L15" t="n">
-        <v>278.7330645958066</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004663</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>756.532252314524</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35968,7 +35968,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>429.2814066296115</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
         <v>310.4243770504663</v>
@@ -35980,10 +35980,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36120,16 +36120,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>236.5687745713073</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,25 +36436,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>609.7603912467498</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36840,7 +36840,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36928,13 +36928,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37150,22 +37150,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>383.956422297167</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37308,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37393,22 +37393,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37630,22 +37630,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490674</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>720.1247453734237</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.01303278507419</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.32965022211</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523304</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686868</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M46" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_3_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_3_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3124083.010752212</v>
+        <v>3129022.273601245</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.837800623</v>
       </c>
     </row>
     <row r="8">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -673,10 +673,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>336.6153965471916</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -706,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>129.6553603084662</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>59.72683757586869</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -828,7 +828,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>25.31590541686235</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -898,25 +898,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>320.797539652425</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>97.31207013050921</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -952,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1053,22 +1053,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>142.2665117930623</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>56.88196987815806</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1147,7 +1147,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>58.58442069852236</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>10.78232630990603</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>59.72683757586846</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1305,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>14.52687838733141</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1369,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710085</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1384,13 +1384,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896913</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113176</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1426,10 +1426,10 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498009</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560524</v>
       </c>
     </row>
     <row r="12">
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,22 +1527,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>79.25260017039366</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
@@ -1587,13 +1587,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1621,13 +1621,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896921</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1663,7 +1663,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498007</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,16 +1764,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1815,22 +1815,22 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>115.526976800218</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>271.8687459790764</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>115.5269768002176</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2289,25 +2289,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>183.1796758467</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>204.1291651532053</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2487,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002183</v>
       </c>
       <c r="T25" t="n">
-        <v>215.8833550539566</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2569,13 +2569,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896915</v>
+        <v>411.964516789693</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2617,7 +2617,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.2409687174121</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2724,10 +2724,10 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>33.3514698018592</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>36.4189118054543</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2952,13 +2952,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>85.05437413388448</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2967,7 +2967,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,22 +2997,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002183</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3201,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>81.21003188889038</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>204.1291651532053</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
         <v>251.078595249801</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3429,7 +3429,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3438,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>103.4697082097229</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>57.85017494300128</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3708,19 +3708,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>59.77945773664938</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3954,7 +3954,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>203.8435192151918</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
@@ -4197,13 +4197,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>183.4653217847138</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056519</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1327.372931623164</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="C2" t="n">
-        <v>958.4104146827526</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="D2" t="n">
-        <v>958.4104146827526</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E2" t="n">
-        <v>958.4104146827526</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>547.4245098931451</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4330,13 +4330,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2302.336936304455</v>
+        <v>2334.977903450294</v>
       </c>
       <c r="U2" t="n">
-        <v>2048.575150942547</v>
+        <v>2081.216118088385</v>
       </c>
       <c r="V2" t="n">
-        <v>1717.512263598976</v>
+        <v>1750.153230744814</v>
       </c>
       <c r="W2" t="n">
-        <v>1717.512263598976</v>
+        <v>1750.153230744814</v>
       </c>
       <c r="X2" t="n">
-        <v>1717.512263598976</v>
+        <v>1750.153230744814</v>
       </c>
       <c r="Y2" t="n">
-        <v>1327.372931623164</v>
+        <v>1750.153230744814</v>
       </c>
     </row>
     <row r="3">
@@ -4409,25 +4409,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4464,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>546.4805193761945</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C4" t="n">
-        <v>377.5443364482876</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D4" t="n">
-        <v>227.4276970359519</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E4" t="n">
-        <v>79.51460345355875</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1546.944160717209</v>
+        <v>1666.64813361638</v>
       </c>
       <c r="C5" t="n">
-        <v>1222.906241876376</v>
+        <v>1666.64813361638</v>
       </c>
       <c r="D5" t="n">
-        <v>864.6405432696254</v>
+        <v>1308.38243500963</v>
       </c>
       <c r="E5" t="n">
-        <v>478.8522906713811</v>
+        <v>1308.38243500963</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>897.3965302200224</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>479.4327221182093</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>152.2380021542122</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4600,19 +4600,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V5" t="n">
-        <v>2697.149091018222</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="W5" t="n">
-        <v>2697.149091018222</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="X5" t="n">
-        <v>2323.683332757143</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="Y5" t="n">
-        <v>1933.544000781331</v>
+        <v>2053.247973680502</v>
       </c>
     </row>
     <row r="6">
@@ -4646,16 +4646,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>559.1928012785276</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>559.1928012785276</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>415.489254012808</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>268.5993065148977</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>670.6724489759715</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064344</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064344</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="8">
@@ -4780,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1954.141365880777</v>
+        <v>1560.797780174034</v>
       </c>
       <c r="C8" t="n">
-        <v>1954.141365880777</v>
+        <v>1191.835263233623</v>
       </c>
       <c r="D8" t="n">
-        <v>1595.875667274026</v>
+        <v>1191.835263233623</v>
       </c>
       <c r="E8" t="n">
-        <v>1210.087414675782</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861747</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G8" t="n">
         <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2637.972908494462</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>2306.910021150891</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W8" t="n">
-        <v>1954.141365880777</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="X8" t="n">
-        <v>1954.141365880777</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="Y8" t="n">
-        <v>1954.141365880777</v>
+        <v>1947.397620238156</v>
       </c>
     </row>
     <row r="9">
@@ -4880,19 +4880,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064342</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>559.1928012785273</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>409.0761618661916</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>261.1630682837985</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>114.2731207858881</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -5017,37 +5017,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
@@ -5059,34 +5059,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231262</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141866</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465299</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5117,25 +5117,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277031</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341674</v>
+        <v>534.542980734167</v>
       </c>
       <c r="M12" t="n">
-        <v>1247.466478653857</v>
+        <v>1302.911127126628</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>2051.878056918009</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>2331.418122136706</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5175,46 +5175,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>493.3586382081045</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C13" t="n">
-        <v>413.3055067228584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D13" t="n">
-        <v>413.3055067228584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E13" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F13" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5223,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T13" t="n">
-        <v>964.135741824786</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U13" t="n">
-        <v>675.0071030383442</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V13" t="n">
-        <v>675.0071030383442</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W13" t="n">
-        <v>675.0071030383442</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X13" t="n">
-        <v>675.0071030383442</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y13" t="n">
-        <v>675.0071030383442</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
@@ -5275,25 +5275,25 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
         <v>4454.632848899128</v>
@@ -5302,28 +5302,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5354,31 +5354,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277035</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341677</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5412,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028587</v>
+        <v>564.1830073829216</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028587</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028587</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5454,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1382.222354598087</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1158.436939387592</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U16" t="n">
-        <v>869.3083006011507</v>
+        <v>1000.515960419048</v>
       </c>
       <c r="V16" t="n">
-        <v>614.6238123952638</v>
+        <v>745.8314722131613</v>
       </c>
       <c r="W16" t="n">
-        <v>325.2066423583032</v>
+        <v>745.8314722131613</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028587</v>
+        <v>745.8314722131613</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028587</v>
+        <v>745.8314722131613</v>
       </c>
     </row>
     <row r="17">
@@ -5491,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
         <v>1701.093169003441</v>
@@ -5503,22 +5503,22 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155895</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822469</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5527,40 +5527,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5591,7 +5591,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
         <v>263.5382936126482</v>
@@ -5603,7 +5603,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
         <v>1558.376451307619</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5679,10 +5679,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5700,25 +5700,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1382.222354598087</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>869.3083006011507</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V19" t="n">
-        <v>614.6238123952638</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W19" t="n">
-        <v>325.2066423583032</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5728,31 +5728,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
         <v>889.2841917514082</v>
@@ -5770,10 +5770,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
@@ -5788,16 +5788,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5849,10 +5849,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5937,22 +5937,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U22" t="n">
-        <v>786.0822064765186</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V22" t="n">
-        <v>531.3977182706318</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W22" t="n">
-        <v>531.3977182706318</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X22" t="n">
-        <v>303.4081673726145</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y22" t="n">
         <v>97.21709146028584</v>
@@ -5968,22 +5968,22 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
@@ -5992,7 +5992,7 @@
         <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.284191751408</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6007,28 +6007,28 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
         <v>3205.060556590537</v>
@@ -6056,13 +6056,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
@@ -6071,25 +6071,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
         <v>97.21709146028584</v>
@@ -6153,10 +6153,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1187.92115703528</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T25" t="n">
-        <v>969.8571620312833</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U25" t="n">
-        <v>969.8571620312833</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V25" t="n">
-        <v>715.1726738253965</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W25" t="n">
-        <v>425.7555037884359</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>425.7555037884359</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>425.7555037884359</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155904</v>
       </c>
       <c r="G26" t="n">
         <v>488.193237080547</v>
@@ -6223,13 +6223,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
@@ -6241,37 +6241,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="27">
@@ -6302,31 +6302,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6360,40 +6360,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>581.2185435662825</v>
+        <v>130.9054447954972</v>
       </c>
       <c r="C28" t="n">
-        <v>412.2823606383756</v>
+        <v>130.9054447954972</v>
       </c>
       <c r="D28" t="n">
-        <v>412.2823606383756</v>
+        <v>130.9054447954972</v>
       </c>
       <c r="E28" t="n">
-        <v>412.2823606383756</v>
+        <v>130.9054447954972</v>
       </c>
       <c r="F28" t="n">
-        <v>265.3924131404652</v>
+        <v>130.9054447954972</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6402,34 +6402,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T28" t="n">
-        <v>1275.130855347408</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="U28" t="n">
-        <v>1275.130855347408</v>
+        <v>675.0071030383447</v>
       </c>
       <c r="V28" t="n">
-        <v>1020.446367141521</v>
+        <v>420.3226148324578</v>
       </c>
       <c r="W28" t="n">
-        <v>1020.446367141521</v>
+        <v>130.9054447954972</v>
       </c>
       <c r="X28" t="n">
-        <v>983.6595875400524</v>
+        <v>130.9054447954972</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.8670083965222</v>
+        <v>130.9054447954972</v>
       </c>
     </row>
     <row r="29">
@@ -6451,31 +6451,31 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182377</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6530,13 +6530,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
         <v>97.21709146028584</v>
@@ -6545,25 +6545,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>481.4617027208816</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>395.5481934947356</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>395.5481934947356</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
         <v>97.21709146028584</v>
@@ -6627,10 +6627,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6639,34 +6639,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S31" t="n">
-        <v>1187.92115703528</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T31" t="n">
-        <v>964.1357418247858</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U31" t="n">
-        <v>964.1357418247858</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V31" t="n">
-        <v>709.4512536188989</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W31" t="n">
-        <v>709.4512536188989</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>481.4617027208816</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>481.4617027208816</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6679,70 +6679,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6767,40 +6767,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J33" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028584</v>
+        <v>359.169691290395</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383383</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6882,28 +6882,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S34" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T34" t="n">
-        <v>1075.21084526296</v>
+        <v>1105.890821793977</v>
       </c>
       <c r="U34" t="n">
-        <v>786.0822064765186</v>
+        <v>816.762183007535</v>
       </c>
       <c r="V34" t="n">
-        <v>531.3977182706318</v>
+        <v>816.762183007535</v>
       </c>
       <c r="W34" t="n">
-        <v>531.3977182706318</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="X34" t="n">
-        <v>303.4081673726145</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805463</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
@@ -6937,52 +6937,52 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7004,13 +7004,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
         <v>97.21709146028584</v>
@@ -7019,19 +7019,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028584</v>
+        <v>613.8011874802287</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028584</v>
+        <v>613.8011874802287</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028584</v>
+        <v>463.6845480678929</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028584</v>
+        <v>463.6845480678929</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028584</v>
+        <v>463.6845480678929</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028584</v>
@@ -7101,10 +7101,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7113,34 +7113,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R37" t="n">
-        <v>1440.481750413457</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S37" t="n">
-        <v>1240.561740329009</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T37" t="n">
-        <v>1016.776325118515</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U37" t="n">
-        <v>727.647686332073</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="V37" t="n">
-        <v>727.647686332073</v>
+        <v>1244.231782352016</v>
       </c>
       <c r="W37" t="n">
-        <v>727.647686332073</v>
+        <v>1244.231782352016</v>
       </c>
       <c r="X37" t="n">
-        <v>499.6581354340557</v>
+        <v>1016.242231453999</v>
       </c>
       <c r="Y37" t="n">
-        <v>278.8655562905255</v>
+        <v>795.4496523104684</v>
       </c>
     </row>
     <row r="38">
@@ -7162,49 +7162,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515095</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643322</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899125</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207828</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U38" t="n">
         <v>4262.3578574653</v>
@@ -7241,40 +7241,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7356,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>964.1357418247858</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U40" t="n">
-        <v>675.007103038344</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V40" t="n">
-        <v>675.007103038344</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W40" t="n">
-        <v>385.5899330013834</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>157.600382103366</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="41">
@@ -7399,49 +7399,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515095</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643322</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899125</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207828</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U41" t="n">
         <v>4262.3578574653</v>
@@ -7478,34 +7478,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7602,19 +7602,19 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U43" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V43" t="n">
-        <v>614.6238123952637</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W43" t="n">
-        <v>325.2066423583032</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="44">
@@ -7648,28 +7648,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7715,13 +7715,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I45" t="n">
         <v>97.21709146028584</v>
@@ -7730,19 +7730,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7812,10 +7812,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7824,31 +7824,31 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U46" t="n">
-        <v>986.0022165609664</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V46" t="n">
-        <v>731.3177283550796</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W46" t="n">
-        <v>545.9992215018333</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="X46" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
         <v>97.21709146028584</v>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8066,7 +8066,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516221</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>435.923890002883</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8777,10 +8777,10 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>409.700368322958</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>423.3376789165131</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445221</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,31 +9005,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>423.337678916511</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445214</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208061</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208061</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720721</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208061</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298014</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208061</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10594,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928307</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928327</v>
+        <v>449.51353349283</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208061</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11068,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>449.51353349283</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11305,10 +11305,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119823</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,22 +23415,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>87.99422092823417</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23475,13 +23475,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23652,16 +23652,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23703,22 +23703,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>82.39383318338523</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>14.36860641950091</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23940,7 +23940,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>82.39383318338567</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24177,25 +24177,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>103.0576765518773</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>14.45548819888947</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24375,7 +24375,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>82.393833183385</v>
       </c>
       <c r="T25" t="n">
-        <v>5.6642060044326</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24612,10 +24612,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>133.1420986615184</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24648,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>189.2907435835829</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24840,13 +24840,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>82.19244696474335</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24855,7 +24855,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -24885,22 +24885,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>82.393833183385</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25089,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>140.3375291694989</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>14.45548819888947</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25317,7 +25317,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25326,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>63.0238602536547</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,19 +25359,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>52.11417746079152</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -25596,19 +25596,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>158.8051956154454</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>82.39383318338557</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>82.39383318338565</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26073,7 +26073,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26085,13 +26085,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>103.0576765518772</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>744790.5744110562</v>
+        <v>744790.5744110564</v>
       </c>
     </row>
     <row r="10">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>744790.5744110565</v>
+        <v>744790.5744110564</v>
       </c>
     </row>
     <row r="15">
@@ -26316,25 +26316,25 @@
         <v>677359.4601380334</v>
       </c>
       <c r="C2" t="n">
-        <v>677359.4601380335</v>
+        <v>677359.4601380336</v>
       </c>
       <c r="D2" t="n">
-        <v>677359.4601380334</v>
+        <v>677359.4601380336</v>
       </c>
       <c r="E2" t="n">
-        <v>645197.9485672192</v>
+        <v>645197.9485672197</v>
       </c>
       <c r="F2" t="n">
-        <v>645197.9485672194</v>
+        <v>645197.9485672195</v>
       </c>
       <c r="G2" t="n">
-        <v>645197.9485672194</v>
+        <v>645197.9485672193</v>
       </c>
       <c r="H2" t="n">
-        <v>645197.9485672194</v>
+        <v>645197.9485672193</v>
       </c>
       <c r="I2" t="n">
-        <v>645197.9485672191</v>
+        <v>645197.9485672195</v>
       </c>
       <c r="J2" t="n">
         <v>645197.9485672193</v>
@@ -26346,13 +26346,13 @@
         <v>645197.9485672194</v>
       </c>
       <c r="M2" t="n">
-        <v>645197.9485672197</v>
+        <v>645197.9485672199</v>
       </c>
       <c r="N2" t="n">
         <v>645197.9485672195</v>
       </c>
       <c r="O2" t="n">
-        <v>645197.9485672194</v>
+        <v>645197.9485672197</v>
       </c>
       <c r="P2" t="n">
         <v>645197.9485672197</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768964</v>
+        <v>525160.0364768959</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>2.181012005480468e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.2191925931</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26426,10 +26426,10 @@
         <v>165632.8677865244</v>
       </c>
       <c r="E4" t="n">
-        <v>22174.60758687067</v>
+        <v>22174.6075868708</v>
       </c>
       <c r="F4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="G4" t="n">
         <v>22174.60758687071</v>
@@ -26441,25 +26441,25 @@
         <v>22174.60758687071</v>
       </c>
       <c r="J4" t="n">
-        <v>22174.60758687075</v>
+        <v>22174.60758687064</v>
       </c>
       <c r="K4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="L4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="M4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="N4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687069</v>
       </c>
       <c r="O4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687069</v>
       </c>
       <c r="P4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.6075868707</v>
       </c>
     </row>
     <row r="5">
@@ -26478,31 +26478,31 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
+        <v>91987.32594871661</v>
+      </c>
+      <c r="F5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="F5" t="n">
-        <v>91987.32594871665</v>
-      </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871662</v>
@@ -26511,7 +26511,7 @@
         <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-161100.3649264449</v>
+        <v>-161100.364926445</v>
       </c>
       <c r="C6" t="n">
         <v>428867.5142880997</v>
       </c>
       <c r="D6" t="n">
-        <v>428867.5142880995</v>
+        <v>428867.5142880997</v>
       </c>
       <c r="E6" t="n">
-        <v>4901.387295013871</v>
+        <v>5778.519428764179</v>
       </c>
       <c r="F6" t="n">
-        <v>530061.4237719103</v>
+        <v>530938.5559056599</v>
       </c>
       <c r="G6" t="n">
-        <v>530061.4237719107</v>
+        <v>530938.5559056599</v>
       </c>
       <c r="H6" t="n">
-        <v>530061.4237719105</v>
+        <v>530938.5559056599</v>
       </c>
       <c r="I6" t="n">
-        <v>530061.4237719101</v>
+        <v>530938.55590566</v>
       </c>
       <c r="J6" t="n">
-        <v>353638.2045793174</v>
+        <v>354515.3367130668</v>
       </c>
       <c r="K6" t="n">
-        <v>530061.4237719105</v>
+        <v>530938.5559056601</v>
       </c>
       <c r="L6" t="n">
-        <v>530061.4237719105</v>
+        <v>530938.55590566</v>
       </c>
       <c r="M6" t="n">
-        <v>395260.4085380734</v>
+        <v>396137.5406718233</v>
       </c>
       <c r="N6" t="n">
-        <v>530061.4237719106</v>
+        <v>530938.5559056601</v>
       </c>
       <c r="O6" t="n">
-        <v>530061.4237719105</v>
+        <v>530938.5559056603</v>
       </c>
       <c r="P6" t="n">
-        <v>530061.4237719107</v>
+        <v>530938.5559056603</v>
       </c>
     </row>
   </sheetData>
@@ -26694,7 +26694,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26737,49 +26737,49 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>377.7436642170867</v>
+      </c>
+      <c r="C3" t="n">
         <v>377.7436642170866</v>
-      </c>
-      <c r="C3" t="n">
-        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
+        <v>830.3824054541</v>
+      </c>
+      <c r="F3" t="n">
         <v>830.3824054541003</v>
       </c>
-      <c r="F3" t="n">
-        <v>830.3824054541005</v>
-      </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
     </row>
     <row r="4">
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26813,7 +26813,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="K4" t="n">
         <v>1215.213643253573</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,19 +26968,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370133</v>
       </c>
       <c r="F3" t="n">
+        <v>3.410605131648481e-13</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990178</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545561</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990178</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990178</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27393,10 +27393,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>77.16877347360338</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27426,13 +27426,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>86.79296004919155</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>120.1051426060686</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27548,7 +27548,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>120.1051426060689</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27618,25 +27618,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>44.47535211858258</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>54.61924611435204</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -27672,7 +27672,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27681,7 +27681,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27773,22 +27773,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>4.167450853506864</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,10 +27821,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>89.7832221019998</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27867,7 +27867,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27909,7 +27909,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>192.6397468097669</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>375.4556123461476</v>
       </c>
     </row>
     <row r="9">
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1051426060688</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28025,16 +28025,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>152.7829238717195</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28089,10 +28089,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="C11" t="n">
-        <v>-5.487218467042014e-13</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28101,13 +28101,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28140,16 +28140,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -28158,7 +28158,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>1.221555270729305e-12</v>
       </c>
     </row>
     <row r="12">
@@ -29337,7 +29337,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31515,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31539,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31627,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31712,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.536285481346</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31916,43 +31916,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q13" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,10 +31989,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176652</v>
@@ -32001,37 +32001,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32074,31 +32074,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
@@ -32107,7 +32107,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32244,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32253,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32262,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32314,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32323,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32341,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32405,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32417,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32700,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,46 +32779,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32864,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32876,10 +32876,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32888,19 +32888,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,46 +33016,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33101,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33113,10 +33113,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33125,19 +33125,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,46 +33253,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33338,7 +33338,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33350,10 +33350,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33362,19 +33362,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,46 +33490,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33575,7 +33575,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33587,10 +33587,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33599,19 +33599,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,46 +33727,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33812,7 +33812,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33824,10 +33824,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33836,19 +33836,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,46 +33964,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34049,7 +34049,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34061,10 +34061,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34073,19 +34073,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,46 +34201,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34286,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34298,10 +34298,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34310,19 +34310,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34523,7 +34523,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34535,10 +34535,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34547,19 +34547,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34786,19 +34786,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>410.005506727916</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,13 +35026,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>515.9012490932197</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35187,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35263,10 +35263,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349802</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879391</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734243</v>
+        <v>776.129440800466</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415665</v>
+        <v>756.5322523145259</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>282.363702241108</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315245</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507413</v>
+        <v>88.01303278507405</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.2256999718747</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349816</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490674</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004663</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>756.532252314524</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315248</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507419</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,19 +35804,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
         <v>236.2373515206029</v>
@@ -35825,7 +35825,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35971,16 +35971,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36056,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36217,13 +36217,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36360,28 +36360,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,28 +36439,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523309</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,28 +36597,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,28 +36676,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523309</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415063</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,28 +36913,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523309</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M31" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,28 +37071,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349582</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37150,28 +37150,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523309</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M34" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,28 +37308,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221118</v>
+        <v>805.32965022211</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,22 +37387,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M37" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,28 +37545,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221093</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,28 +37624,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523309</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M40" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,28 +37782,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221093</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,22 +37861,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M43" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,28 +38019,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M44" t="n">
         <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081101</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,22 +38098,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M46" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
